--- a/bedehkara.xlsx
+++ b/bedehkara.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\bedehkaran\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>نام شخص</t>
   </si>
@@ -65,9 +60,6 @@
     <t>اصغر شیری</t>
   </si>
   <si>
-    <t>اصغر یوسفی</t>
-  </si>
-  <si>
     <t>اکبر نامداری</t>
   </si>
   <si>
@@ -179,9 +171,6 @@
     <t>09148025899</t>
   </si>
   <si>
-    <t>حسین مقدمی</t>
-  </si>
-  <si>
     <t>حمید عباسزاده(مشدی)</t>
   </si>
   <si>
@@ -218,9 +207,6 @@
     <t>دکتر دندان پزشک</t>
   </si>
   <si>
-    <t>رسول کریمی</t>
-  </si>
-  <si>
     <t>رضا اللهوردی</t>
   </si>
   <si>
@@ -341,12 +327,6 @@
     <t xml:space="preserve">عوض علیزاده </t>
   </si>
   <si>
-    <t>عنایت مرادی</t>
-  </si>
-  <si>
-    <t>عیسی مصطفوی</t>
-  </si>
-  <si>
     <t>غلامحسین بالی</t>
   </si>
   <si>
@@ -413,9 +393,6 @@
     <t>محمد حسن آقائی</t>
   </si>
   <si>
-    <t>محمد حسین نوری</t>
-  </si>
-  <si>
     <t>محمد عباسزاده</t>
   </si>
   <si>
@@ -425,16 +402,10 @@
     <t>09104729223</t>
   </si>
   <si>
-    <t>محمد عزتپور</t>
-  </si>
-  <si>
     <t>محمد علی امیری</t>
   </si>
   <si>
     <t>محمد کریمی</t>
-  </si>
-  <si>
-    <t>محمد محمد پور</t>
   </si>
   <si>
     <t>محمد مقدمی(نیاز)</t>
@@ -938,7 +909,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -946,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1092,7 +1063,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="7">
-        <v>1000</v>
+        <v>38650</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1103,23 +1074,23 @@
         <v>15</v>
       </c>
       <c r="B13" s="7">
-        <v>38650</v>
+        <v>50000</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7">
-        <v>50000</v>
+        <v>21000</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,25 +1098,25 @@
         <v>18</v>
       </c>
       <c r="B15" s="7">
-        <v>21000</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+        <v>20500</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="7">
-        <v>20500</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>66000</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1153,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="7">
-        <v>66000</v>
+        <v>21500</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1164,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="7">
-        <v>21500</v>
+        <v>4000</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1175,25 +1146,25 @@
         <v>24</v>
       </c>
       <c r="B19" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>11000</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7">
-        <v>11000</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>388000</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,7 +1172,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="7">
-        <v>388000</v>
+        <v>49750</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1212,33 +1183,33 @@
         <v>29</v>
       </c>
       <c r="B22" s="7">
-        <v>49750</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+        <v>4000</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="B23" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>35000</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="B24" s="7">
-        <v>35000</v>
+        <v>349000</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1249,7 +1220,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="7">
-        <v>349000</v>
+        <v>25000</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1260,7 +1231,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="7">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1271,36 +1242,36 @@
         <v>35</v>
       </c>
       <c r="B27" s="7">
-        <v>23000</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>79000</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7">
-        <v>79000</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>945000</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="7">
-        <v>945000</v>
+        <v>5500</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1279,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="7">
-        <v>5500</v>
+        <v>248698</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1319,25 +1290,25 @@
         <v>41</v>
       </c>
       <c r="B31" s="7">
-        <v>248698</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+        <v>53800</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7">
-        <v>53800</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,40 +1316,40 @@
         <v>45</v>
       </c>
       <c r="B33" s="7">
-        <v>80000</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+        <v>348500</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="7">
-        <v>348500</v>
+        <v>119000</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7">
-        <v>119000</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>31500</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,18 +1357,22 @@
         <v>51</v>
       </c>
       <c r="B36" s="7">
-        <v>60000</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+        <v>3000</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" s="7">
-        <v>31500</v>
+        <v>20500</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1405,17 +1380,13 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,7 +1394,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="7">
-        <v>20500</v>
+        <v>0</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1434,18 +1405,22 @@
         <v>57</v>
       </c>
       <c r="B40" s="7">
-        <v>6000</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+        <v>6500</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="7">
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1453,17 +1428,13 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="7">
-        <v>6500</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>85000</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1442,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="7">
-        <v>38500</v>
+        <v>11000</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1482,92 +1453,100 @@
         <v>63</v>
       </c>
       <c r="B44" s="7">
-        <v>85000</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+        <v>12000</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" s="7">
         <v>0</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B46" s="7">
-        <v>11000</v>
+        <v>388000</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B47" s="7">
-        <v>12000</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>77900</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" s="7">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="D48" s="6"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" s="7">
-        <v>388000</v>
-      </c>
-      <c r="C49" s="6"/>
+        <v>54700</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="D49" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="7">
-        <v>77900</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+        <v>65000</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B51" s="7">
-        <v>1100</v>
+        <v>94698</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1575,40 +1554,32 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B52" s="7">
-        <v>54700</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>15500</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B53" s="7">
-        <v>65000</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>36000</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="7">
-        <v>94698</v>
+        <v>38800</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1616,10 +1587,10 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="7">
-        <v>15500</v>
+        <v>31500</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1627,10 +1598,10 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B56" s="7">
-        <v>36000</v>
+        <v>92000</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1641,7 +1612,7 @@
         <v>83</v>
       </c>
       <c r="B57" s="7">
-        <v>38800</v>
+        <v>60000</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1652,7 +1623,7 @@
         <v>84</v>
       </c>
       <c r="B58" s="7">
-        <v>31500</v>
+        <v>10500</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1663,18 +1634,20 @@
         <v>85</v>
       </c>
       <c r="B59" s="7">
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="7">
-        <v>60000</v>
+        <v>154000</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1682,88 +1655,88 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="7">
-        <v>10500</v>
+        <v>119500</v>
       </c>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="7">
-        <v>0</v>
-      </c>
-      <c r="C62" s="6"/>
+        <v>144000</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="D62" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B63" s="7">
-        <v>154000</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+        <v>24500</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B64" s="7">
-        <v>119500</v>
+        <v>173000</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="D64" s="6"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B65" s="7">
-        <v>144000</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="7">
-        <v>24500</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>97</v>
-      </c>
+        <v>175872</v>
+      </c>
+      <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B67" s="7">
-        <v>173000</v>
+        <v>5500</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1771,10 +1744,10 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B68" s="7">
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -1784,21 +1757,17 @@
       <c r="A69" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="7">
-        <v>175872</v>
-      </c>
+      <c r="B69" s="7"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="D69" s="6"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" s="7">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -1806,30 +1775,36 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B71" s="7">
-        <v>84000</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="B72" s="7">
+        <v>8200</v>
+      </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="7">
-        <v>60700</v>
+        <v>33000</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -1837,21 +1812,23 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="7">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B75" s="7">
-        <v>6500</v>
+        <v>22000</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1859,25 +1836,21 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B76" s="7">
-        <v>0</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>8500</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" s="7">
-        <v>8200</v>
+        <v>59500</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -1885,10 +1858,10 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" s="7">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -1896,45 +1869,53 @@
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="7">
-        <v>3500</v>
-      </c>
-      <c r="C79" s="6"/>
+        <v>51700</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D79" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" s="7">
-        <v>22000</v>
-      </c>
-      <c r="C80" s="6"/>
+        <v>69000</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D80" s="6"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81" s="7">
-        <v>8500</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+        <v>350000</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B82" s="7">
-        <v>59500</v>
+        <v>5000</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -1942,10 +1923,10 @@
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B83" s="7">
-        <v>30000</v>
+        <v>51500</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -1953,53 +1934,47 @@
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B84" s="7">
-        <v>51700</v>
+        <v>99500</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B85" s="7">
-        <v>69000</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>163000</v>
+      </c>
+      <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B86" s="7">
-        <v>350000</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>46500</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B87" s="7">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2007,21 +1982,23 @@
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B88" s="7">
-        <v>51500</v>
+        <v>35000</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B89" s="7">
-        <v>5000</v>
+        <v>30500</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2029,25 +2006,21 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B90" s="7">
-        <v>99500</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>132</v>
-      </c>
+        <v>31000</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91" s="7">
-        <v>500</v>
+        <v>78800</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2055,10 +2028,10 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B92" s="7">
-        <v>163000</v>
+        <v>103600</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2066,10 +2039,10 @@
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93" s="7">
-        <v>46500</v>
+        <v>13000</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2077,10 +2050,10 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B94" s="7">
-        <v>8500</v>
+        <v>70000</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2088,10 +2061,10 @@
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B95" s="7">
-        <v>13000</v>
+        <v>82300</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2099,23 +2072,21 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B96" s="7">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="C96" s="6"/>
-      <c r="D96" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="D96" s="6"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" s="7">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2123,10 +2094,10 @@
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B98" s="7">
-        <v>31000</v>
+        <v>40100</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2134,10 +2105,10 @@
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B99" s="7">
-        <v>78800</v>
+        <v>5500</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2145,10 +2116,10 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B100" s="7">
-        <v>103600</v>
+        <v>200000</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -2156,10 +2127,10 @@
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101" s="7">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2167,10 +2138,10 @@
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B102" s="7">
-        <v>70000</v>
+        <v>2500</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2178,10 +2149,10 @@
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B103" s="7">
-        <v>82300</v>
+        <v>908000</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -2189,10 +2160,10 @@
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B104" s="7">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2203,18 +2174,20 @@
         <v>147</v>
       </c>
       <c r="B105" s="7">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B106" s="7">
-        <v>40100</v>
+        <v>658500</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2222,10 +2195,10 @@
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B107" s="7">
-        <v>5500</v>
+        <v>103000</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2236,103 +2209,13 @@
         <v>150</v>
       </c>
       <c r="B108" s="7">
-        <v>200000</v>
+        <v>95450</v>
       </c>
       <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B109" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110" s="7">
-        <v>2500</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="F110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="7">
-        <v>908000</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B112" s="7">
-        <v>16000</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B113" s="7">
-        <v>40000</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B114" s="7">
-        <v>658500</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B115" s="7">
-        <v>103000</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B116" s="7">
-        <v>95450</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F116" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/bedehkara.xlsx
+++ b/bedehkara.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{20E88172-0065-624A-A450-EF7C9E824D0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,460 +31,459 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
-    <t xml:space="preserve">نام شخص</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مانده بدهکاری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تلفن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">موبایل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ابراهیم صفری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ابراهیم نجفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختیار اژدری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اروجعلی دنیائی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149251229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسماعیل یوسفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اصغر الله وردی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اصغر بالی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اصغر شیری</t>
+    <t>نام شخص</t>
+  </si>
+  <si>
+    <t>مانده بدهکاری</t>
+  </si>
+  <si>
+    <t>تلفن</t>
+  </si>
+  <si>
+    <t>موبایل</t>
+  </si>
+  <si>
+    <t>ابراهیم صفری</t>
+  </si>
+  <si>
+    <t>ابراهیم نجفی</t>
+  </si>
+  <si>
+    <t>اختیار اژدری</t>
+  </si>
+  <si>
+    <t>اروجعلی دنیائی</t>
+  </si>
+  <si>
+    <t>09149251229</t>
+  </si>
+  <si>
+    <t>اسماعیل یوسفی</t>
+  </si>
+  <si>
+    <t>اصغر الله وردی</t>
+  </si>
+  <si>
+    <t>اصغر بالی</t>
+  </si>
+  <si>
+    <t>اصغر شیری</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">اکبر نامداری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اکبر نجفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التفات رفیعی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149070526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التفات محسن زاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ایرج اشکنیا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09170431028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09381289541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ایوب قره داغی</t>
+    <t>اکبر نامداری</t>
+  </si>
+  <si>
+    <t>اکبر نجفی</t>
+  </si>
+  <si>
+    <t>التفات رفیعی</t>
+  </si>
+  <si>
+    <t>09149070526</t>
+  </si>
+  <si>
+    <t>التفات محسن زاده</t>
+  </si>
+  <si>
+    <t>ایرج اشکنیا</t>
+  </si>
+  <si>
+    <t>09170431028</t>
+  </si>
+  <si>
+    <t>09381289541</t>
+  </si>
+  <si>
+    <t>ایوب قره داغی</t>
   </si>
   <si>
     <t xml:space="preserve">احمد علی قاسمزاده </t>
   </si>
   <si>
-    <t xml:space="preserve">ایوب نوری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آیت مقدمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09143239387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">091456510089387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بهروز مقدمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جعفر اسمعیل پور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جلیل بابایی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09191804237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حاج عبدالله عزتپور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حاج تیمور عزت پور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حاج محمد قاسمزاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حامد نوری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسن شیری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09144232939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسن قاسمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09191495385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسن قره داغی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسن قنبری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسین بابایی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149236331</t>
+    <t>ایوب نوری</t>
+  </si>
+  <si>
+    <t>آیت مقدمی</t>
+  </si>
+  <si>
+    <t>09143239387</t>
+  </si>
+  <si>
+    <t>091456510089387</t>
+  </si>
+  <si>
+    <t>بهروز مقدمی</t>
+  </si>
+  <si>
+    <t>جعفر اسمعیل پور</t>
+  </si>
+  <si>
+    <t>جلیل بابایی</t>
+  </si>
+  <si>
+    <t>04152213444</t>
+  </si>
+  <si>
+    <t>09191804237</t>
+  </si>
+  <si>
+    <t>حاج عبدالله عزتپور</t>
+  </si>
+  <si>
+    <t>حاج تیمور عزت پور</t>
+  </si>
+  <si>
+    <t>حاج محمد قاسمزاده</t>
+  </si>
+  <si>
+    <t>حامد نوری</t>
+  </si>
+  <si>
+    <t>حسن شیری</t>
+  </si>
+  <si>
+    <t>09144232939</t>
+  </si>
+  <si>
+    <t>حسن قاسمی</t>
+  </si>
+  <si>
+    <t>09191495385</t>
+  </si>
+  <si>
+    <t>حسن قره داغی</t>
+  </si>
+  <si>
+    <t>حسن قنبری</t>
+  </si>
+  <si>
+    <t>حسین بابایی</t>
+  </si>
+  <si>
+    <t>04152213119</t>
+  </si>
+  <si>
+    <t>09149236331</t>
   </si>
   <si>
     <t xml:space="preserve">حسین آقایی </t>
   </si>
   <si>
-    <t xml:space="preserve">حسین بالی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09147390217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسین رفیعی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09148025899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حمید عباسزاده(مشدی)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حیدر نجفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09141253504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خانم دهیار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">خانم مدیر اصغری</t>
+    <t>حسین بالی</t>
+  </si>
+  <si>
+    <t>09147390217</t>
+  </si>
+  <si>
+    <t>حسین رفیعی</t>
+  </si>
+  <si>
+    <t>04152213089</t>
+  </si>
+  <si>
+    <t>09148025899</t>
+  </si>
+  <si>
+    <t>حمید عباسزاده(مشدی)</t>
+  </si>
+  <si>
+    <t>حیدر نجفی</t>
+  </si>
+  <si>
+    <t>04152213233</t>
+  </si>
+  <si>
+    <t>09141253504</t>
+  </si>
+  <si>
+    <t>خانم دهیار</t>
+  </si>
+  <si>
+    <t>خانم مدیر اصغری</t>
   </si>
   <si>
     <t xml:space="preserve">خالق شاه کرمی </t>
   </si>
   <si>
-    <t xml:space="preserve">خدایار عزیزی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149239086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">داوود یاقوتی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دکتر دندان پزشک</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رضا اللهوردی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رضا بابایی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149055446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حاتم صلحی فر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رضا حبیبی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09148754068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رمضان یوسفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">روشن میرزایی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09380735442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09905462586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زعفر شیری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09193964065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09141242679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زیداله قره داغی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سعید براتی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سلطانعلی حسین زاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سیروس شیری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شهریار بابایی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صادق یوسفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149238746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صندوق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عنایت نامداری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علی اشکنیا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149805103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علی خیاطی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149235647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علی رفیعی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149241908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علی کریمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علی محرمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علی مقدمی(نیاز)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09199066811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علی نجفی (همسایه)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عوضعلی آقایی اقدم</t>
+    <t>خدایار عزیزی</t>
+  </si>
+  <si>
+    <t>04152213033</t>
+  </si>
+  <si>
+    <t>09149239086</t>
+  </si>
+  <si>
+    <t>داوود یاقوتی</t>
+  </si>
+  <si>
+    <t>دکتر دندان پزشک</t>
+  </si>
+  <si>
+    <t>رضا اللهوردی</t>
+  </si>
+  <si>
+    <t>رضا بابایی</t>
+  </si>
+  <si>
+    <t>04152213194</t>
+  </si>
+  <si>
+    <t>09149055446</t>
+  </si>
+  <si>
+    <t>حاتم صلحی فر</t>
+  </si>
+  <si>
+    <t>رضا حبیبی</t>
+  </si>
+  <si>
+    <t>09148754068</t>
+  </si>
+  <si>
+    <t>رمضان یوسفی</t>
+  </si>
+  <si>
+    <t>روشن میرزایی</t>
+  </si>
+  <si>
+    <t>09380735442</t>
+  </si>
+  <si>
+    <t>09905462586</t>
+  </si>
+  <si>
+    <t>زعفر شیری</t>
+  </si>
+  <si>
+    <t>09193964065</t>
+  </si>
+  <si>
+    <t>09141242679</t>
+  </si>
+  <si>
+    <t>زیداله قره داغی</t>
+  </si>
+  <si>
+    <t>سعید براتی</t>
+  </si>
+  <si>
+    <t>سلطانعلی حسین زاده</t>
+  </si>
+  <si>
+    <t>سیروس شیری</t>
+  </si>
+  <si>
+    <t>شهریار بابایی</t>
+  </si>
+  <si>
+    <t>صادق یوسفی</t>
+  </si>
+  <si>
+    <t>09149238746</t>
+  </si>
+  <si>
+    <t>صندوق</t>
+  </si>
+  <si>
+    <t>عنایت نامداری</t>
+  </si>
+  <si>
+    <t>علی اشکنیا</t>
+  </si>
+  <si>
+    <t>09149805103</t>
+  </si>
+  <si>
+    <t>علی خیاطی</t>
+  </si>
+  <si>
+    <t>04152213402</t>
+  </si>
+  <si>
+    <t>09149235647</t>
+  </si>
+  <si>
+    <t>علی رفیعی</t>
+  </si>
+  <si>
+    <t>04152213137</t>
+  </si>
+  <si>
+    <t>09149241908</t>
+  </si>
+  <si>
+    <t>علی کریمی</t>
+  </si>
+  <si>
+    <t>علی محرمی</t>
+  </si>
+  <si>
+    <t>علی مقدمی(نیاز)</t>
+  </si>
+  <si>
+    <t>09199066811</t>
+  </si>
+  <si>
+    <t>علی نجفی (همسایه)</t>
+  </si>
+  <si>
+    <t>عوضعلی آقایی اقدم</t>
   </si>
   <si>
     <t xml:space="preserve">عوض علیزاده </t>
   </si>
   <si>
-    <t xml:space="preserve">غلامحسین بالی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غلامرضا قاسم زاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09148294924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قادر ملکی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قدرت قاسمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09146124800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کاظم قره داغی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کرم جبرئیل آذر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مالک نجفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مجید نجفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149788019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محبت ابیضی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محرم الله وردی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09143233274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149246220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محرم نامداری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمد حسن آقائی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمد عباسزاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04152213268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09104729223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمد علی امیری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمد کریمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمد مقدمی(نیاز)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مرتضی علیزاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09142575571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کریم عزتپور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مهداد یوسفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مهدی خیاطی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مهدی عباسزاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مهدی عباسی (سهراب)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">میثم عیوضی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">میلاد اسلامی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نبی نامداری</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نیاز علی رستم پور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نیاز علی مقدمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هادی شاهمحمدی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هادی قاسمزاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هادی مقدمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149070531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هادی یوسفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علیرضا خیاطی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ولی عباسزاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09149232479</t>
+    <t>غلامحسین بالی</t>
+  </si>
+  <si>
+    <t>غلامرضا قاسم زاده</t>
+  </si>
+  <si>
+    <t>04152213430</t>
+  </si>
+  <si>
+    <t>09148294924</t>
+  </si>
+  <si>
+    <t>قادر ملکی</t>
+  </si>
+  <si>
+    <t>قدرت قاسمی</t>
+  </si>
+  <si>
+    <t>09146124800</t>
+  </si>
+  <si>
+    <t>کاظم قره داغی</t>
+  </si>
+  <si>
+    <t>کرم جبرئیل آذر</t>
+  </si>
+  <si>
+    <t>مالک نجفی</t>
+  </si>
+  <si>
+    <t>مجید نجفی</t>
+  </si>
+  <si>
+    <t>04152213357</t>
+  </si>
+  <si>
+    <t>09149788019</t>
+  </si>
+  <si>
+    <t>محبت ابیضی</t>
+  </si>
+  <si>
+    <t>04152213001</t>
+  </si>
+  <si>
+    <t>محرم الله وردی</t>
+  </si>
+  <si>
+    <t>09143233274</t>
+  </si>
+  <si>
+    <t>09149246220</t>
+  </si>
+  <si>
+    <t>محرم نامداری</t>
+  </si>
+  <si>
+    <t>محمد حسن آقائی</t>
+  </si>
+  <si>
+    <t>محمد عباسزاده</t>
+  </si>
+  <si>
+    <t>04152213268</t>
+  </si>
+  <si>
+    <t>09104729223</t>
+  </si>
+  <si>
+    <t>محمد علی امیری</t>
+  </si>
+  <si>
+    <t>محمد کریمی</t>
+  </si>
+  <si>
+    <t>محمد مقدمی(نیاز)</t>
+  </si>
+  <si>
+    <t>مرتضی علیزاده</t>
+  </si>
+  <si>
+    <t>09142575571</t>
+  </si>
+  <si>
+    <t>کریم عزتپور</t>
+  </si>
+  <si>
+    <t>مهداد یوسفی</t>
+  </si>
+  <si>
+    <t>مهدی خیاطی</t>
+  </si>
+  <si>
+    <t>مهدی عباسزاده</t>
+  </si>
+  <si>
+    <t>مهدی عباسی (سهراب)</t>
+  </si>
+  <si>
+    <t>میثم عیوضی</t>
+  </si>
+  <si>
+    <t>میلاد اسلامی</t>
+  </si>
+  <si>
+    <t>نبی نامداری</t>
+  </si>
+  <si>
+    <t>نیاز علی رستم پور</t>
+  </si>
+  <si>
+    <t>نیاز علی مقدمی</t>
+  </si>
+  <si>
+    <t>هادی شاهمحمدی</t>
+  </si>
+  <si>
+    <t>هادی قاسمزاده</t>
+  </si>
+  <si>
+    <t>هادی مقدمی</t>
+  </si>
+  <si>
+    <t>09149070531</t>
+  </si>
+  <si>
+    <t>هادی یوسفی</t>
+  </si>
+  <si>
+    <t>علیرضا خیاطی</t>
+  </si>
+  <si>
+    <t>ولی عباسزاده</t>
+  </si>
+  <si>
+    <t>09149232479</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -484,22 +492,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF008000"/>
       <name val="Tahoma"/>
@@ -507,10 +500,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -530,7 +530,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -538,75 +538,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -665,33 +616,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.85"/>
+    <col min="1" max="1" width="25.9609375" customWidth="1"/>
+    <col min="2" max="2" width="17.75390625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.2578125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.14453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,53 +965,53 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>9651080</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>6500</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>78500</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>26000</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>83300</v>
       </c>
       <c r="C6" s="6"/>
@@ -761,40 +1020,40 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>101000</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="7">
         <v>20000</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>162500</v>
+      <c r="B9" s="7">
+        <v>100000</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -805,33 +1064,33 @@
       <c r="D10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="7">
         <v>1000</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>38650</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="7">
         <v>50000</v>
       </c>
       <c r="C13" s="6"/>
@@ -840,22 +1099,22 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="7">
         <v>0</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>20500</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -866,44 +1125,44 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="7">
         <v>76000</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="7">
         <v>21500</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="7">
         <v>4000</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="7">
         <v>11000</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -914,33 +1173,33 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>388000</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="7">
         <v>49750</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="7">
         <v>4000</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -951,55 +1210,55 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="7">
         <v>64000</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="7">
         <v>892000</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="7">
         <v>25000</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="7">
         <v>23000</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="7">
         <v>79000</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1008,11 +1267,11 @@
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="7">
         <v>945000</v>
       </c>
       <c r="C28" s="6"/>
@@ -1021,33 +1280,33 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="7">
         <v>5500</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="7">
         <v>49000</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="7">
         <v>53800</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1058,22 +1317,22 @@
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="7">
         <v>27500</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="7">
         <v>348500</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -1084,11 +1343,11 @@
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="7">
         <v>77000</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1099,22 +1358,22 @@
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="7" t="n">
+      <c r="B35" s="7">
         <v>31500</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="7">
         <v>3000</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1125,44 +1384,44 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="7" t="n">
+      <c r="B37" s="7">
         <v>20500</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="B38" s="7">
         <v>6000</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="7" t="n">
+      <c r="B39" s="7">
         <v>0</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="7">
         <v>6500</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -1173,44 +1432,44 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B41" s="7">
         <v>38500</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="7" t="n">
+      <c r="B42" s="7">
         <v>85000</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="7" t="n">
+      <c r="B43" s="7">
         <v>11000</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="7" t="n">
+      <c r="B44" s="7">
         <v>32500</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1221,22 +1480,22 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="7" t="n">
+      <c r="B45" s="7">
         <v>31000</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="7" t="n">
+      <c r="B46" s="7">
         <v>388000</v>
       </c>
       <c r="C46" s="6"/>
@@ -1245,22 +1504,22 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="7" t="n">
+      <c r="B47" s="7">
         <v>77900</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="7" t="n">
+      <c r="B48" s="7">
         <v>4700</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -1271,11 +1530,11 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="7" t="n">
+      <c r="B49" s="7">
         <v>0</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -1286,66 +1545,66 @@
       </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="7" t="n">
+      <c r="B50" s="7">
         <v>15500</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="7" t="n">
+      <c r="B51" s="7">
         <v>38800</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="7" t="n">
+      <c r="B52" s="7">
         <v>31500</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="7" t="n">
+      <c r="B53" s="7">
         <v>60000</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="7" t="n">
+      <c r="B54" s="7">
         <v>10500</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="7" t="n">
+      <c r="B55" s="7">
         <v>12000</v>
       </c>
       <c r="C55" s="6"/>
@@ -1354,33 +1613,33 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="7" t="n">
+      <c r="B56" s="7">
         <v>154000</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="7" t="n">
+      <c r="B57" s="7">
         <v>75000</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="7" t="n">
+      <c r="B58" s="7">
         <v>5000</v>
       </c>
       <c r="C58" s="6"/>
@@ -1389,11 +1648,11 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="7" t="n">
+      <c r="B59" s="7">
         <v>96000</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -1404,11 +1663,11 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="7" t="n">
+      <c r="B60" s="7">
         <v>24500</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -1419,33 +1678,33 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="7" t="n">
+      <c r="B61" s="7">
         <v>186200</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="7" t="n">
+      <c r="B62" s="7">
         <v>7000</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="7" t="n">
+      <c r="B63" s="7">
         <v>175872</v>
       </c>
       <c r="C63" s="6"/>
@@ -1454,55 +1713,55 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="7" t="n">
+      <c r="B64" s="7">
         <v>5500</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="7" t="n">
+      <c r="B65" s="7">
         <v>84000</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="7" t="n">
+      <c r="B66" s="7">
         <v>107000</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="7" t="n">
+      <c r="B67" s="7">
         <v>0</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="7" t="n">
+      <c r="B68" s="7">
         <v>170000</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -1513,22 +1772,22 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="7" t="n">
+      <c r="B69" s="7">
         <v>33000</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="7" t="n">
+      <c r="B70" s="7">
         <v>3500</v>
       </c>
       <c r="C70" s="6"/>
@@ -1537,44 +1796,44 @@
       </c>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="7" t="n">
+      <c r="B71" s="7">
         <v>22000</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="7" t="n">
+      <c r="B72" s="7">
         <v>59500</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="7" t="n">
+      <c r="B73" s="7">
         <v>30000</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="7" t="n">
+      <c r="B74" s="7">
         <v>0</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -1585,11 +1844,11 @@
       </c>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="7" t="n">
+      <c r="B75" s="7">
         <v>69000</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -1598,11 +1857,11 @@
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="7" t="n">
+      <c r="B76" s="7">
         <v>297500</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -1613,33 +1872,33 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="7" t="n">
+      <c r="B77" s="7">
         <v>5000</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="7" t="n">
+      <c r="B78" s="7">
         <v>0</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="7" t="n">
+      <c r="B79" s="7">
         <v>8500</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -1650,44 +1909,44 @@
       </c>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B80" s="7" t="n">
+      <c r="B80" s="7">
         <v>163000</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="7" t="n">
+      <c r="B81" s="7">
         <v>46500</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="7" t="n">
+      <c r="B82" s="7">
         <v>13000</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="7" t="n">
+      <c r="B83" s="7">
         <v>35000</v>
       </c>
       <c r="C83" s="6"/>
@@ -1696,143 +1955,143 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="7" t="n">
+      <c r="B84" s="7">
         <v>30500</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="7" t="n">
+      <c r="B85" s="7">
         <v>78800</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="7" t="n">
+      <c r="B86" s="7">
         <v>53600</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="7" t="n">
+      <c r="B87" s="7">
         <v>13000</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="7" t="n">
+      <c r="B88" s="7">
         <v>70000</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="7" t="n">
+      <c r="B89" s="7">
         <v>0</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B90" s="7" t="n">
+      <c r="B90" s="7">
         <v>40100</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B91" s="7" t="n">
+      <c r="B91" s="7">
         <v>5500</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B92" s="7" t="n">
+      <c r="B92" s="7">
         <v>200000</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="7" t="n">
+      <c r="B93" s="7">
         <v>3000</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="7" t="n">
+      <c r="B94" s="7">
         <v>135500</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="7" t="n">
+      <c r="B95" s="7">
         <v>16000</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="7" t="n">
+      <c r="B96" s="7">
         <v>40000</v>
       </c>
       <c r="C96" s="6"/>
@@ -1841,33 +2100,33 @@
       </c>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="7" t="n">
+      <c r="B97" s="7">
         <v>0</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="7" t="n">
+      <c r="B98" s="7">
         <v>103000</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="7" t="n">
+      <c r="B99" s="7">
         <v>6000</v>
       </c>
       <c r="C99" s="6"/>
@@ -1876,24 +2135,8 @@
       </c>
       <c r="F99" s="6"/>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/bedehkara.xlsx
+++ b/bedehkara.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{20E88172-0065-624A-A450-EF7C9E824D0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>نام شخص</t>
   </si>
@@ -286,9 +285,6 @@
     <t>09149238746</t>
   </si>
   <si>
-    <t>صندوق</t>
-  </si>
-  <si>
     <t>عنایت نامداری</t>
   </si>
   <si>
@@ -457,9 +453,6 @@
     <t>هادی قاسمزاده</t>
   </si>
   <si>
-    <t>هادی مقدمی</t>
-  </si>
-  <si>
     <t>09149070531</t>
   </si>
   <si>
@@ -473,17 +466,38 @@
   </si>
   <si>
     <t>09149232479</t>
+  </si>
+  <si>
+    <t>ناصر قربانی</t>
+  </si>
+  <si>
+    <t>عمران قربانی</t>
+  </si>
+  <si>
+    <t>هادی عزیزی</t>
+  </si>
+  <si>
+    <t>عنایت مرادی</t>
+  </si>
+  <si>
+    <t>اسداله قره داغی</t>
+  </si>
+  <si>
+    <t>فرزعلی محمدپور</t>
+  </si>
+  <si>
+    <t>سلیمان شیری</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -514,8 +528,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +547,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFC0"/>
         <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -542,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -550,7 +577,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -926,31 +955,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.9609375" customWidth="1"/>
-    <col min="2" max="2" width="17.75390625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.2578125" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.14453125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.890625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,53 +994,53 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
-        <v>9651080</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>6500</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>78500</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
-        <v>26000</v>
+      <c r="B5" s="8">
+        <v>0</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>83300</v>
       </c>
       <c r="C6" s="6"/>
@@ -1020,78 +1049,78 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
-        <v>101000</v>
+      <c r="B7" s="8">
+        <v>44000</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7">
-        <v>20000</v>
+        <v>150</v>
+      </c>
+      <c r="B8" s="8">
+        <v>10500</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7">
-        <v>100000</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>20000</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3600</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="7">
-        <v>38650</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1000</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="7">
-        <v>50000</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
@@ -1099,23 +1128,23 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="8">
+        <v>50000</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7">
-        <v>20500</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>20</v>
@@ -1125,45 +1154,45 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="7">
-        <v>76000</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="8">
+        <v>28500</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="7">
-        <v>21500</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="8">
+        <v>66000</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7">
-        <v>4000</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="8">
+        <v>21500</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="7">
-        <v>11000</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4000</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>26</v>
@@ -1173,34 +1202,34 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="7">
-        <v>388000</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7">
-        <v>49750</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="8">
+        <v>38000</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7">
-        <v>4000</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <v>49750</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>31</v>
@@ -1210,56 +1239,56 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="7">
-        <v>64000</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="7">
-        <v>892000</v>
+        <v>33</v>
+      </c>
+      <c r="B24" s="8">
+        <v>11000</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="7">
-        <v>25000</v>
+        <v>34</v>
+      </c>
+      <c r="B25" s="8">
+        <v>848000</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="7">
-        <v>23000</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="8">
+        <v>25000</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="7">
-        <v>79000</v>
+        <v>36</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>38</v>
@@ -1267,12 +1296,12 @@
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="7">
-        <v>945000</v>
+        <v>37</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
@@ -1280,34 +1309,34 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="7">
-        <v>5500</v>
+        <v>39</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1144600</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="7">
-        <v>49000</v>
+        <v>41</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5500</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="7">
-        <v>53800</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="8">
+        <v>61000</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>44</v>
@@ -1317,23 +1346,23 @@
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="7">
-        <v>27500</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="8">
+        <v>53800</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="7">
-        <v>348500</v>
+        <v>46</v>
+      </c>
+      <c r="B33" s="8">
+        <v>73000</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>44</v>
@@ -1343,12 +1372,12 @@
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7">
-        <v>77000</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="8">
+        <v>348500</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>50</v>
@@ -1358,23 +1387,23 @@
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="7">
-        <v>31500</v>
+        <v>49</v>
+      </c>
+      <c r="B35" s="8">
+        <v>50000</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="7">
-        <v>3000</v>
+        <v>52</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>54</v>
@@ -1384,45 +1413,45 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="7">
-        <v>20500</v>
+        <v>53</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3000</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="7">
-        <v>6000</v>
+        <v>56</v>
+      </c>
+      <c r="B38" s="8">
+        <v>20500</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B39" s="8">
+        <v>6000</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="7">
-        <v>6500</v>
+        <v>58</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>60</v>
@@ -1432,45 +1461,45 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="7">
-        <v>38500</v>
+        <v>59</v>
+      </c>
+      <c r="B41" s="8">
+        <v>6500</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="7">
-        <v>85000</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="8">
+        <v>38500</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="7">
-        <v>11000</v>
+        <v>63</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="7">
-        <v>32500</v>
+        <v>64</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>66</v>
@@ -1480,23 +1509,23 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="7">
-        <v>31000</v>
+        <v>65</v>
+      </c>
+      <c r="B45" s="8">
+        <v>20500</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="7">
-        <v>388000</v>
+        <v>68</v>
+      </c>
+      <c r="B46" s="8">
+        <v>31000</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -1504,23 +1533,23 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="7">
-        <v>77900</v>
+        <v>69</v>
+      </c>
+      <c r="B47" s="8">
+        <v>240000</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="7">
-        <v>4700</v>
+        <v>71</v>
+      </c>
+      <c r="B48" s="8">
+        <v>77900</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>73</v>
@@ -1530,12 +1559,12 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="7">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B49" s="8">
+        <v>4700</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>76</v>
@@ -1545,598 +1574,650 @@
       </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="7">
-        <v>15500</v>
+        <v>75</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="7">
-        <v>38800</v>
+        <v>78</v>
+      </c>
+      <c r="B51" s="8">
+        <v>15500</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="7">
-        <v>31500</v>
+        <v>79</v>
+      </c>
+      <c r="B52" s="8">
+        <v>38800</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="7">
-        <v>60000</v>
+        <v>80</v>
+      </c>
+      <c r="B53" s="8">
+        <v>31500</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="7">
-        <v>10500</v>
+        <v>152</v>
+      </c>
+      <c r="B54" s="8">
+        <v>2000</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="8">
+        <v>56000</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="8">
+        <v>10500</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B57" s="8">
         <v>12000</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="7">
-        <v>154000</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="7">
-        <v>75000</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="8">
+        <v>33500</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="7">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="8">
         <v>5000</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6" t="s">
+      <c r="C60" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="7">
+      <c r="B61" s="8">
         <v>96000</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="C61" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="7">
+      <c r="B62" s="8">
         <v>24500</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="7">
-        <v>186200</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="7">
-        <v>7000</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="8">
+        <v>257400</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="8">
+        <v>7000</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="7">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="8">
         <v>175872</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="7">
-        <v>5500</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="7">
-        <v>84000</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="7">
-        <v>107000</v>
+        <v>98</v>
+      </c>
+      <c r="B66" s="8">
+        <v>5500</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="7">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="B67" s="8">
+        <v>13000</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68" s="7">
-        <v>170000</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>105</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B68" s="8">
+        <v>84000</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="7">
-        <v>33000</v>
+        <v>100</v>
+      </c>
+      <c r="B69" s="8">
+        <v>0</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="7">
-        <v>3500</v>
-      </c>
-      <c r="C70" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="B70" s="8">
+        <v>29500</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="D70" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="7">
-        <v>22000</v>
+        <v>102</v>
+      </c>
+      <c r="B71" s="8">
+        <v>176000</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72" s="7">
-        <v>59500</v>
+        <v>151</v>
+      </c>
+      <c r="B72" s="8">
+        <v>19000</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="7">
-        <v>30000</v>
+        <v>105</v>
+      </c>
+      <c r="B73" s="8">
+        <v>0</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="7">
-        <v>0</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B74" s="8">
+        <v>3500</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B75" s="7">
-        <v>69000</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B75" s="8">
+        <v>22000</v>
+      </c>
+      <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="7">
-        <v>297500</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B76" s="8">
+        <v>59500</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="B77" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="7">
-        <v>0</v>
-      </c>
-      <c r="C78" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="B78" s="8">
+        <v>0</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="7">
-        <v>8500</v>
+        <v>114</v>
+      </c>
+      <c r="B79" s="8">
+        <v>69000</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" s="7">
-        <v>163000</v>
+        <v>116</v>
+      </c>
+      <c r="B80" s="8">
+        <v>345000</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="7">
-        <v>46500</v>
+        <v>119</v>
+      </c>
+      <c r="B81" s="8">
+        <v>5000</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="7">
-        <v>13000</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B82" s="8">
+        <v>0</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="7">
-        <v>35000</v>
+        <v>121</v>
+      </c>
+      <c r="B83" s="8">
+        <v>8500</v>
       </c>
       <c r="C83" s="6"/>
-      <c r="D83" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="D83" s="6"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="7">
-        <v>30500</v>
+        <v>124</v>
+      </c>
+      <c r="B84" s="8">
+        <v>172500</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="7">
-        <v>78800</v>
+        <v>125</v>
+      </c>
+      <c r="B85" s="8">
+        <v>46500</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="7">
-        <v>53600</v>
+        <v>126</v>
+      </c>
+      <c r="B86" s="8">
+        <v>0</v>
       </c>
       <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87" s="7">
-        <v>13000</v>
+        <v>127</v>
+      </c>
+      <c r="B87" s="8">
+        <v>0</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="7">
-        <v>70000</v>
+        <v>129</v>
+      </c>
+      <c r="B88" s="8">
+        <v>30500</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B89" s="7">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="B89" s="8">
+        <v>78800</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="7">
-        <v>40100</v>
+        <v>131</v>
+      </c>
+      <c r="B90" s="8">
+        <v>53600</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" s="7">
-        <v>5500</v>
+        <v>132</v>
+      </c>
+      <c r="B91" s="8">
+        <v>0</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="7">
-        <v>200000</v>
+        <v>133</v>
+      </c>
+      <c r="B92" s="8">
+        <v>70000</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B93" s="7">
-        <v>3000</v>
+        <v>134</v>
+      </c>
+      <c r="B93" s="8">
+        <v>0</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B94" s="7">
-        <v>135500</v>
+        <v>135</v>
+      </c>
+      <c r="B94" s="8">
+        <v>40100</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95" s="7">
-        <v>16000</v>
+        <v>136</v>
+      </c>
+      <c r="B95" s="8">
+        <v>5500</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="7">
-        <v>40000</v>
+        <v>146</v>
+      </c>
+      <c r="B96" s="8">
+        <v>54000</v>
       </c>
       <c r="C96" s="6"/>
-      <c r="D96" s="6" t="s">
-        <v>143</v>
-      </c>
+      <c r="D96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B97" s="7">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="B97" s="8">
+        <v>200000</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B98" s="7">
-        <v>103000</v>
+        <v>138</v>
+      </c>
+      <c r="B98" s="8">
+        <v>3000</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B99" s="7">
-        <v>6000</v>
+        <v>139</v>
+      </c>
+      <c r="B99" s="8">
+        <v>143000</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="8">
+        <v>16000</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" s="8">
+        <v>27000</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="8">
+        <v>0</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="8">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="7">
+        <f>SUM(B3:B104)</f>
+        <v>6258722</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bedehkara.xlsx
+++ b/bedehkara.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>نام شخص</t>
   </si>
@@ -75,15 +75,9 @@
     <t>اکبر نامداری</t>
   </si>
   <si>
-    <t>اکبر نجفی</t>
-  </si>
-  <si>
     <t>التفات رفیعی</t>
   </si>
   <si>
-    <t>09149070526</t>
-  </si>
-  <si>
     <t>التفات محسن زاده</t>
   </si>
   <si>
@@ -487,6 +481,27 @@
   </si>
   <si>
     <t>سلیمان شیری</t>
+  </si>
+  <si>
+    <t>مهدی دانیالی</t>
+  </si>
+  <si>
+    <t>کامران طالبی</t>
+  </si>
+  <si>
+    <t>حسین یدی بولاغ</t>
+  </si>
+  <si>
+    <t>امیرحسین قادری</t>
+  </si>
+  <si>
+    <t>امیرحسین محسن زاده</t>
+  </si>
+  <si>
+    <t>حمید قره داغی</t>
+  </si>
+  <si>
+    <t>رقیه قاسمی</t>
   </si>
 </sst>
 </file>
@@ -536,7 +551,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +570,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -569,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -579,7 +600,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -955,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -963,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1029,7 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>6500</v>
       </c>
       <c r="C3" s="6"/>
@@ -1019,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8">
-        <v>78500</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1040,7 +1062,7 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>83300</v>
       </c>
       <c r="C6" s="6"/>
@@ -1053,8 +1075,8 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
-        <v>44000</v>
+      <c r="B7" s="9">
+        <v>47500</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1062,10 +1084,10 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="8">
-        <v>10500</v>
+        <v>148</v>
+      </c>
+      <c r="B8" s="9">
+        <v>29700</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1075,7 +1097,7 @@
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>20000</v>
       </c>
       <c r="C9" s="6"/>
@@ -1086,8 +1108,8 @@
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8">
-        <v>3600</v>
+      <c r="B10" s="9">
+        <v>206200</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1095,10 +1117,10 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>154</v>
+      </c>
+      <c r="B11" s="9">
+        <v>50000</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1106,10 +1128,10 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1117,60 +1139,60 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1000</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="8">
-        <v>50000</v>
+        <v>155</v>
+      </c>
+      <c r="B14" s="9">
+        <v>5500</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8">
-        <v>28500</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8">
-        <v>66000</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="9">
+        <v>28500</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1178,10 +1200,10 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="8">
-        <v>21500</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="9">
+        <v>68000</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1189,36 +1211,36 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8">
-        <v>4000</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
+        <v>25000</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1226,36 +1248,36 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>49750</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9">
+        <v>8000</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1263,10 +1285,10 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8">
-        <v>848000</v>
+        <v>0</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1274,10 +1296,10 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="8">
-        <v>25000</v>
+        <v>32</v>
+      </c>
+      <c r="B26" s="9">
+        <v>-697900</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1285,47 +1307,47 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B27" s="9">
+        <v>31000</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="8">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="9">
-        <v>1144600</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="8">
-        <v>5500</v>
+        <v>37</v>
+      </c>
+      <c r="B30" s="10">
+        <v>595800</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1333,92 +1355,88 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="8">
-        <v>61000</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B31" s="9">
+        <v>5500</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9">
+        <v>12500</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="8">
-        <v>53800</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="8">
-        <v>73000</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B33" s="9">
+        <v>121500</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="8">
-        <v>348500</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B34" s="9">
+        <v>-200000</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8">
-        <v>50000</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B36" s="8">
         <v>0</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="8">
-        <v>3000</v>
+        <v>153</v>
+      </c>
+      <c r="B37" s="9">
+        <v>7000</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1426,10 +1444,10 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="8">
-        <v>20500</v>
+        <v>47</v>
+      </c>
+      <c r="B38" s="9">
+        <v>50000</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1437,36 +1455,36 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8">
-        <v>6000</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B40" s="8">
         <v>0</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" s="8">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1474,10 +1492,10 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="8">
-        <v>38500</v>
+        <v>55</v>
+      </c>
+      <c r="B42" s="9">
+        <v>6000</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1485,36 +1503,36 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B43" s="8">
         <v>0</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B44" s="9">
+        <v>6500</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="8">
-        <v>20500</v>
+        <v>60</v>
+      </c>
+      <c r="B45" s="9">
+        <v>38500</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1522,75 +1540,71 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B46" s="8">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="D46" s="6"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B47" s="8">
-        <v>240000</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="B48" s="8">
-        <v>77900</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>-100000</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B49" s="8">
-        <v>4700</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="8">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B50" s="9">
+        <v>31000</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B51" s="8">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1598,32 +1612,40 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="8">
-        <v>38800</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="B52" s="9">
+        <v>65000</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="8">
-        <v>31500</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="B53" s="9">
+        <v>4700</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="B54" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1631,10 +1653,10 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="8">
-        <v>56000</v>
+        <v>76</v>
+      </c>
+      <c r="B55" s="9">
+        <v>15500</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1642,23 +1664,21 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="8">
-        <v>10500</v>
+        <v>77</v>
+      </c>
+      <c r="B56" s="9">
+        <v>38800</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D56" s="6"/>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B57" s="8">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1666,10 +1686,10 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="8">
-        <v>33500</v>
+        <v>150</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2000</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1677,53 +1697,45 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="8">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="B59" s="9">
+        <v>56000</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="D59" s="6"/>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B60" s="8">
-        <v>5000</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C60" s="6"/>
       <c r="D60" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="8">
-        <v>96000</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B61" s="9">
+        <v>52500</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="8">
-        <v>24500</v>
+        <v>147</v>
+      </c>
+      <c r="B62" s="9">
+        <v>83500</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1731,45 +1743,53 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B63" s="8">
-        <v>257400</v>
+        <v>0</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="8">
-        <v>7000</v>
-      </c>
-      <c r="C64" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="B64" s="9">
+        <v>13000</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D64" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="8">
-        <v>175872</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="B65" s="9">
+        <v>113000</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="8">
-        <v>5500</v>
+        <v>89</v>
+      </c>
+      <c r="B66" s="9">
+        <v>24500</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1777,10 +1797,10 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="8">
-        <v>13000</v>
+        <v>92</v>
+      </c>
+      <c r="B67" s="9">
+        <v>578600</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1788,21 +1808,23 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B68" s="8">
-        <v>84000</v>
+        <v>0</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="8">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B69" s="9">
+        <v>175872</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1810,25 +1832,21 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B70" s="8">
-        <v>29500</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="8">
-        <v>176000</v>
+        <v>145</v>
+      </c>
+      <c r="B71" s="9">
+        <v>13000</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1836,10 +1854,10 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="8">
-        <v>19000</v>
+        <v>97</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1020000</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1847,34 +1865,36 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="B73" s="9">
+        <v>240000</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="D73" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B74" s="8">
-        <v>3500</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B75" s="8">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1882,10 +1902,10 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B76" s="8">
-        <v>59500</v>
+        <v>0</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1893,53 +1913,45 @@
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B77" s="8">
-        <v>30000</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="8">
-        <v>0</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B78" s="9">
+        <v>3500</v>
+      </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" s="8">
-        <v>69000</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B79" s="9">
+        <v>22000</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" s="8">
-        <v>345000</v>
+        <v>107</v>
+      </c>
+      <c r="B80" s="9">
+        <v>59500</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -1947,47 +1959,53 @@
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="8">
-        <v>5000</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="B81" s="9">
+        <v>20000</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="8">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="B82" s="9">
+        <v>8500</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="8">
-        <v>8500</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="B83" s="9">
+        <v>69000</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" s="8">
-        <v>172500</v>
+        <v>114</v>
+      </c>
+      <c r="B84" s="9">
+        <v>200000</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -1995,10 +2013,10 @@
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="8">
-        <v>46500</v>
+        <v>117</v>
+      </c>
+      <c r="B85" s="9">
+        <v>5000</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2006,23 +2024,25 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B86" s="8">
         <v>0</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="D86" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B87" s="8">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="B87" s="9">
+        <v>8500</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2030,10 +2050,10 @@
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B88" s="8">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2041,10 +2061,10 @@
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="8">
-        <v>78800</v>
+        <v>123</v>
+      </c>
+      <c r="B89" s="9">
+        <v>83000</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2052,21 +2072,23 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B90" s="8">
-        <v>53600</v>
+        <v>0</v>
       </c>
       <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="8">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="B91" s="9">
+        <v>50500</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2074,10 +2096,10 @@
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="8">
-        <v>70000</v>
+        <v>152</v>
+      </c>
+      <c r="B92" s="9">
+        <v>118500</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2085,10 +2107,10 @@
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" s="8">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="B93" s="9">
+        <v>30500</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2096,10 +2118,10 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B94" s="8">
-        <v>40100</v>
+        <v>128</v>
+      </c>
+      <c r="B94" s="9">
+        <v>61500</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2107,10 +2129,10 @@
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="8">
-        <v>5500</v>
+        <v>129</v>
+      </c>
+      <c r="B95" s="9">
+        <v>53600</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2118,10 +2140,10 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B96" s="8">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -2129,10 +2151,10 @@
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B97" s="8">
-        <v>200000</v>
+        <v>131</v>
+      </c>
+      <c r="B97" s="9">
+        <v>70000</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2140,10 +2162,10 @@
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B98" s="8">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2151,69 +2173,132 @@
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B99" s="8">
-        <v>143000</v>
+        <v>0</v>
       </c>
       <c r="C99" s="6"/>
-      <c r="D99" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="D99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B100" s="8">
-        <v>16000</v>
+        <v>134</v>
+      </c>
+      <c r="B100" s="9">
+        <v>5500</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B101" s="8">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="8">
+        <v>0</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="9">
+        <v>3000</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="9">
+        <v>379000</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" s="9">
+        <v>33000</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="9">
+        <v>27000</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="8">
+        <v>0</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="9">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="9">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B102" s="8">
-        <v>0</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" s="8">
-        <v>103000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B104" s="8">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="7">
-        <f>SUM(B3:B104)</f>
-        <v>6258722</v>
+      <c r="B110" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="7">
+        <f>SUM(B3:B110)</f>
+        <v>4443672</v>
       </c>
     </row>
   </sheetData>

--- a/bedehkara.xlsx
+++ b/bedehkara.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>نام شخص</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ابراهیم نجفی</t>
   </si>
   <si>
-    <t>اختیار اژدری</t>
-  </si>
-  <si>
     <t>اروجعلی دنیائی</t>
   </si>
   <si>
@@ -66,48 +63,24 @@
     <t>اصغر بالی</t>
   </si>
   <si>
-    <t>اصغر شیری</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>اکبر نامداری</t>
   </si>
   <si>
     <t>التفات رفیعی</t>
   </si>
   <si>
-    <t>التفات محسن زاده</t>
-  </si>
-  <si>
     <t>ایرج اشکنیا</t>
   </si>
   <si>
-    <t>09170431028</t>
-  </si>
-  <si>
-    <t>09381289541</t>
-  </si>
-  <si>
     <t>ایوب قره داغی</t>
   </si>
   <si>
     <t xml:space="preserve">احمد علی قاسمزاده </t>
   </si>
   <si>
-    <t>ایوب نوری</t>
-  </si>
-  <si>
     <t>آیت مقدمی</t>
   </si>
   <si>
-    <t>09143239387</t>
-  </si>
-  <si>
-    <t>091456510089387</t>
-  </si>
-  <si>
     <t>بهروز مقدمی</t>
   </si>
   <si>
@@ -132,21 +105,9 @@
     <t>حاج محمد قاسمزاده</t>
   </si>
   <si>
-    <t>حامد نوری</t>
-  </si>
-  <si>
-    <t>حسن شیری</t>
-  </si>
-  <si>
-    <t>09144232939</t>
-  </si>
-  <si>
     <t>حسن قاسمی</t>
   </si>
   <si>
-    <t>09191495385</t>
-  </si>
-  <si>
     <t>حسن قره داغی</t>
   </si>
   <si>
@@ -180,60 +141,21 @@
     <t>09148025899</t>
   </si>
   <si>
-    <t>حمید عباسزاده(مشدی)</t>
-  </si>
-  <si>
-    <t>حیدر نجفی</t>
-  </si>
-  <si>
-    <t>04152213233</t>
-  </si>
-  <si>
-    <t>09141253504</t>
-  </si>
-  <si>
-    <t>خانم دهیار</t>
-  </si>
-  <si>
     <t>خانم مدیر اصغری</t>
   </si>
   <si>
-    <t xml:space="preserve">خالق شاه کرمی </t>
-  </si>
-  <si>
     <t>خدایار عزیزی</t>
   </si>
   <si>
-    <t>04152213033</t>
-  </si>
-  <si>
-    <t>09149239086</t>
-  </si>
-  <si>
     <t>داوود یاقوتی</t>
   </si>
   <si>
-    <t>دکتر دندان پزشک</t>
-  </si>
-  <si>
-    <t>رضا اللهوردی</t>
-  </si>
-  <si>
     <t>رضا بابایی</t>
   </si>
   <si>
-    <t>04152213194</t>
-  </si>
-  <si>
-    <t>09149055446</t>
-  </si>
-  <si>
     <t>حاتم صلحی فر</t>
   </si>
   <si>
-    <t>رضا حبیبی</t>
-  </si>
-  <si>
     <t>09148754068</t>
   </si>
   <si>
@@ -249,9 +171,6 @@
     <t>09905462586</t>
   </si>
   <si>
-    <t>زعفر شیری</t>
-  </si>
-  <si>
     <t>09193964065</t>
   </si>
   <si>
@@ -264,30 +183,15 @@
     <t>سعید براتی</t>
   </si>
   <si>
-    <t>سلطانعلی حسین زاده</t>
-  </si>
-  <si>
     <t>سیروس شیری</t>
   </si>
   <si>
-    <t>شهریار بابایی</t>
-  </si>
-  <si>
     <t>صادق یوسفی</t>
   </si>
   <si>
-    <t>09149238746</t>
-  </si>
-  <si>
-    <t>عنایت نامداری</t>
-  </si>
-  <si>
     <t>علی اشکنیا</t>
   </si>
   <si>
-    <t>09149805103</t>
-  </si>
-  <si>
     <t>علی خیاطی</t>
   </si>
   <si>
@@ -309,45 +213,21 @@
     <t>علی کریمی</t>
   </si>
   <si>
-    <t>علی محرمی</t>
-  </si>
-  <si>
     <t>علی مقدمی(نیاز)</t>
   </si>
   <si>
-    <t>09199066811</t>
-  </si>
-  <si>
-    <t>علی نجفی (همسایه)</t>
-  </si>
-  <si>
     <t>عوضعلی آقایی اقدم</t>
   </si>
   <si>
     <t xml:space="preserve">عوض علیزاده </t>
   </si>
   <si>
-    <t>غلامحسین بالی</t>
-  </si>
-  <si>
     <t>غلامرضا قاسم زاده</t>
   </si>
   <si>
-    <t>04152213430</t>
-  </si>
-  <si>
-    <t>09148294924</t>
-  </si>
-  <si>
-    <t>قادر ملکی</t>
-  </si>
-  <si>
     <t>قدرت قاسمی</t>
   </si>
   <si>
-    <t>09146124800</t>
-  </si>
-  <si>
     <t>کاظم قره داغی</t>
   </si>
   <si>
@@ -402,15 +282,9 @@
     <t>محمد کریمی</t>
   </si>
   <si>
-    <t>محمد مقدمی(نیاز)</t>
-  </si>
-  <si>
     <t>مرتضی علیزاده</t>
   </si>
   <si>
-    <t>09142575571</t>
-  </si>
-  <si>
     <t>کریم عزتپور</t>
   </si>
   <si>
@@ -420,24 +294,12 @@
     <t>مهدی خیاطی</t>
   </si>
   <si>
-    <t>مهدی عباسزاده</t>
-  </si>
-  <si>
     <t>مهدی عباسی (سهراب)</t>
   </si>
   <si>
-    <t>میثم عیوضی</t>
-  </si>
-  <si>
-    <t>میلاد اسلامی</t>
-  </si>
-  <si>
     <t>نبی نامداری</t>
   </si>
   <si>
-    <t>نیاز علی رستم پور</t>
-  </si>
-  <si>
     <t>نیاز علی مقدمی</t>
   </si>
   <si>
@@ -462,9 +324,6 @@
     <t>09149232479</t>
   </si>
   <si>
-    <t>ناصر قربانی</t>
-  </si>
-  <si>
     <t>عمران قربانی</t>
   </si>
   <si>
@@ -475,9 +334,6 @@
   </si>
   <si>
     <t>اسداله قره داغی</t>
-  </si>
-  <si>
-    <t>فرزعلی محمدپور</t>
   </si>
   <si>
     <t>سلیمان شیری</t>
@@ -977,7 +833,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" activeCellId="7" sqref="A40 A39 A29 A28 A20 A16 A12 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,32 +907,32 @@
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
+      <c r="B5" s="9">
+        <v>83300</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
-        <v>83300</v>
+        <v>47500</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9">
-        <v>47500</v>
+        <v>29700</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1084,10 +940,10 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>29700</v>
+        <v>20000</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1098,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>20000</v>
+        <v>206200</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1106,10 +962,10 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B10" s="9">
-        <v>206200</v>
+        <v>50000</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1117,10 +973,10 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="B11" s="9">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1128,21 +984,23 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5500</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1150,23 +1008,21 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>5500</v>
+        <v>28500</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
+      <c r="D14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>68000</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1174,25 +1030,21 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>25000</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9">
-        <v>28500</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1200,10 +1052,10 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9">
-        <v>68000</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1211,33 +1063,33 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>8000</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="9">
-        <v>25000</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8">
         <v>0</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="8">
         <v>0</v>
@@ -1248,10 +1100,10 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>-697900</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1259,25 +1111,21 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="9">
-        <v>8000</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>31000</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B24" s="10">
+        <v>595800</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1285,10 +1133,10 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>5500</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1296,21 +1144,25 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26" s="9">
-        <v>-697900</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+        <v>12500</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B27" s="9">
-        <v>31000</v>
+        <v>121500</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1318,47 +1170,51 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B28" s="9">
+        <v>-200000</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B29" s="8">
         <v>0</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="10">
-        <v>595800</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B31" s="9">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1366,25 +1222,21 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B32" s="9">
-        <v>12500</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33" s="9">
-        <v>121500</v>
+        <v>6000</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1392,10 +1244,10 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="B34" s="9">
-        <v>-200000</v>
+        <v>6500</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1403,40 +1255,32 @@
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="8">
-        <v>0</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B35" s="9">
+        <v>38500</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B36" s="8">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>-100000</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="9">
-        <v>7000</v>
+        <v>40</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1444,47 +1288,53 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B38" s="9">
-        <v>50000</v>
+        <v>31000</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="9">
+        <v>65000</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="8">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4700</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="8">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B41" s="9">
+        <v>15500</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1492,10 +1342,10 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B42" s="9">
-        <v>6000</v>
+        <v>38800</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1503,25 +1353,21 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="8">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B44" s="9">
-        <v>6500</v>
+        <v>56000</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1529,10 +1375,10 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B45" s="9">
-        <v>38500</v>
+        <v>52500</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1540,10 +1386,10 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="8">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B46" s="9">
+        <v>83500</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1551,36 +1397,40 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="8">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B47" s="9">
+        <v>13000</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="8">
-        <v>-100000</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="B48" s="9">
+        <v>113000</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="8">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B49" s="9">
+        <v>24500</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1588,23 +1438,21 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="9">
-        <v>31000</v>
+        <v>578600</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D50" s="6"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="8">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B51" s="9">
+        <v>175872</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1612,40 +1460,32 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B52" s="9">
-        <v>65000</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>13000</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B53" s="9">
-        <v>4700</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>1020000</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="8">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B54" s="9">
+        <v>240000</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1653,10 +1493,10 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="9">
-        <v>15500</v>
+        <v>64</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1664,10 +1504,10 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B56" s="9">
-        <v>38800</v>
+        <v>3500</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1675,10 +1515,10 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B57" s="9">
+        <v>22000</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1686,10 +1526,10 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="B58" s="9">
-        <v>2000</v>
+        <v>59500</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1697,45 +1537,53 @@
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B59" s="9">
-        <v>56000</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+        <v>20000</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="8">
-        <v>0</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B60" s="9">
+        <v>8500</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="6"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B61" s="9">
-        <v>52500</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+        <v>69000</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="B62" s="9">
-        <v>83500</v>
+        <v>200000</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1743,53 +1591,47 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="8">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="B63" s="9">
+        <v>5000</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="D63" s="6"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="9">
-        <v>13000</v>
+        <v>78</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B65" s="9">
-        <v>113000</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>91</v>
-      </c>
+        <v>8500</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="9">
-        <v>24500</v>
+        <v>82</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1797,10 +1639,10 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B67" s="9">
-        <v>578600</v>
+        <v>83000</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1808,23 +1650,21 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="8">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B68" s="9">
+        <v>50500</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="D68" s="6"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B69" s="9">
-        <v>175872</v>
+        <v>118500</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1832,10 +1672,10 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="8">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="B70" s="9">
+        <v>30500</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -1843,10 +1683,10 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B71" s="9">
-        <v>13000</v>
+        <v>61500</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1854,10 +1694,10 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B72" s="9">
-        <v>1020000</v>
+        <v>53600</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1865,10 +1705,10 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B73" s="9">
-        <v>240000</v>
+        <v>70000</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -1876,25 +1716,21 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="8">
-        <v>0</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B74" s="9">
+        <v>5500</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="8">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B75" s="9">
+        <v>3000</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1902,402 +1738,76 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="8">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B76" s="9">
+        <v>379000</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="8">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B77" s="9">
+        <v>33000</v>
       </c>
       <c r="C77" s="6"/>
-      <c r="D77" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B78" s="9">
-        <v>3500</v>
+        <v>27000</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="9">
-        <v>22000</v>
+        <v>94</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0</v>
       </c>
       <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B80" s="9">
-        <v>59500</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B81" s="9">
-        <v>20000</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" s="9">
-        <v>8500</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="9">
-        <v>69000</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="9">
-        <v>200000</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" s="9">
-        <v>5000</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" s="8">
+        <v>96</v>
+      </c>
+      <c r="B82" s="8">
         <v>0</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="9">
-        <v>8500</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" s="8">
-        <v>0</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B89" s="9">
-        <v>83000</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B90" s="8">
-        <v>0</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="9">
-        <v>50500</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B92" s="9">
-        <v>118500</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="9">
-        <v>30500</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B94" s="9">
-        <v>61500</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B95" s="9">
-        <v>53600</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B96" s="8">
-        <v>0</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B97" s="9">
-        <v>70000</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B98" s="8">
-        <v>0</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B99" s="8">
-        <v>0</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B100" s="9">
-        <v>5500</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101" s="8">
-        <v>0</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" s="8">
-        <v>0</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="F102" s="6"/>
-    </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" s="9">
-        <v>3000</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104" s="9">
-        <v>379000</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F104" s="6"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B105" s="9">
-        <v>33000</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="9">
-        <v>27000</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B107" s="8">
-        <v>0</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" s="9">
-        <v>103000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B109" s="9">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B110" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="7">
-        <f>SUM(B3:B110)</f>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="7">
+        <f>SUM(B3:B82)</f>
         <v>4443672</v>
       </c>
     </row>

--- a/bedehkara.xlsx
+++ b/bedehkara.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghaem\Desktop\bedehkaran\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>نام شخص</t>
   </si>
@@ -330,9 +335,6 @@
     <t>هادی عزیزی</t>
   </si>
   <si>
-    <t>عنایت مرادی</t>
-  </si>
-  <si>
     <t>اسداله قره داغی</t>
   </si>
   <si>
@@ -358,12 +360,90 @@
   </si>
   <si>
     <t>رقیه قاسمی</t>
+  </si>
+  <si>
+    <t>زعفر شیری</t>
+  </si>
+  <si>
+    <t>سیاووش مقدمی</t>
+  </si>
+  <si>
+    <t>صابر قره داغی</t>
+  </si>
+  <si>
+    <t>محمد حنیفه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">یحیی قادری </t>
+  </si>
+  <si>
+    <t>امیرحسین یوسفی</t>
+  </si>
+  <si>
+    <t>اصغر مقدمی</t>
+  </si>
+  <si>
+    <t>اصغر شاهمحمدی</t>
+  </si>
+  <si>
+    <t>ابراهیم علیزاده</t>
+  </si>
+  <si>
+    <t>معصومه قربانی</t>
+  </si>
+  <si>
+    <t>سالار مرادی</t>
+  </si>
+  <si>
+    <t>قادر ملکی</t>
+  </si>
+  <si>
+    <t>میرسلیم حسینی</t>
+  </si>
+  <si>
+    <t>غلامعلی حیدری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رحیم وطن دوست </t>
+  </si>
+  <si>
+    <t>غلامحسین بالی</t>
+  </si>
+  <si>
+    <t>عمران حیدری قاواق سفلا</t>
+  </si>
+  <si>
+    <t>محمد بالی</t>
+  </si>
+  <si>
+    <t>محمد نجفی</t>
+  </si>
+  <si>
+    <t>محمد نامداری</t>
+  </si>
+  <si>
+    <t>مهدی عزیزی</t>
+  </si>
+  <si>
+    <t>جمشید قاسمی</t>
+  </si>
+  <si>
+    <t>اسفندیار نامداری</t>
+  </si>
+  <si>
+    <t>مرتضی نجفی</t>
+  </si>
+  <si>
+    <t>فتح الله قره داغی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
@@ -407,7 +487,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,12 +506,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -446,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -456,8 +530,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -833,7 +908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="7" sqref="A40 A39 A29 A28 A20 A16 A12 A5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +960,7 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>6500</v>
       </c>
       <c r="C3" s="6"/>
@@ -894,10 +969,10 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B4" s="8">
-        <v>0</v>
+        <v>84000</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -905,34 +980,34 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9">
-        <v>83300</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
-        <v>47500</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9">
-        <v>29700</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="8">
+        <v>46000</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -940,10 +1015,10 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>20000</v>
+        <v>100</v>
+      </c>
+      <c r="B8" s="8">
+        <v>32200</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -951,10 +1026,10 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <v>206200</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>20000</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -962,10 +1037,10 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="9">
-        <v>50000</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -973,148 +1048,144 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="B11" s="8">
+        <v>50000</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="9">
-        <v>5500</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>5000</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>28500</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9">
-        <v>68000</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6500</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9">
-        <v>25000</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>44000</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="8">
         <v>0</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9">
-        <v>8000</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B19" s="8">
+        <v>78300</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>4500</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B21" s="8">
         <v>0</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9">
-        <v>-697900</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9">
-        <v>31000</v>
+        <v>17</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1122,21 +1193,25 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="10">
-        <v>595800</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9">
-        <v>5500</v>
+        <v>131</v>
+      </c>
+      <c r="B25" s="8">
+        <v>25000</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1144,25 +1219,21 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9">
-        <v>12500</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9">
-        <v>121500</v>
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1170,10 +1241,10 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="9">
-        <v>-200000</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="8">
+        <v>246500</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1181,40 +1252,32 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>31000</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1206200</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="9">
-        <v>7000</v>
+        <v>26</v>
+      </c>
+      <c r="B31" s="8">
+        <v>5500</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1222,21 +1285,25 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="9">
-        <v>50000</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="8">
+        <v>46700</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="9">
-        <v>6000</v>
+        <v>28</v>
+      </c>
+      <c r="B33" s="8">
+        <v>577000</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1244,10 +1311,10 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="9">
-        <v>6500</v>
+        <v>107</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1255,29 +1322,37 @@
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="9">
-        <v>38500</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="8">
+        <v>131000</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="B36" s="8">
-        <v>-100000</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+        <v>81000</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B37" s="8">
         <v>0</v>
@@ -1288,53 +1363,43 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="9">
-        <v>31000</v>
+        <v>34</v>
+      </c>
+      <c r="B38" s="8">
+        <v>6000</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="9">
-        <v>65000</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B39" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9">
-        <v>4700</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B40" s="8">
+        <v>6500</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="9">
-        <v>15500</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="8">
+        <v>38500</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1342,10 +1407,10 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="9">
-        <v>38800</v>
+        <v>108</v>
+      </c>
+      <c r="B42" s="8">
+        <v>-428000</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1353,10 +1418,10 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="9">
-        <v>2000</v>
+        <v>40</v>
+      </c>
+      <c r="B43" s="8">
+        <v>16300</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1364,21 +1429,23 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="9">
-        <v>56000</v>
+        <v>41</v>
+      </c>
+      <c r="B44" s="8">
+        <v>220000</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="9">
-        <v>52500</v>
+        <v>124</v>
+      </c>
+      <c r="B45" s="8">
+        <v>62500</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1386,51 +1453,51 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="9">
-        <v>83500</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="8">
+        <v>65000</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="9">
-        <v>13000</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B47" s="8">
+        <v>18000</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="9">
-        <v>113000</v>
+        <v>44</v>
+      </c>
+      <c r="B48" s="8">
+        <v>4700</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="9">
-        <v>24500</v>
+        <v>49</v>
+      </c>
+      <c r="B49" s="8">
+        <v>15500</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1438,10 +1505,10 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="9">
-        <v>578600</v>
+        <v>50</v>
+      </c>
+      <c r="B50" s="8">
+        <v>38800</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1449,10 +1516,10 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="9">
-        <v>175872</v>
+        <v>110</v>
+      </c>
+      <c r="B51" s="8">
+        <v>7500</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1460,10 +1527,10 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="9">
-        <v>13000</v>
+        <v>120</v>
+      </c>
+      <c r="B52" s="8">
+        <v>50000</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1471,10 +1538,10 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="9">
-        <v>1020000</v>
+        <v>101</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2000</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1482,10 +1549,10 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="9">
-        <v>240000</v>
+        <v>111</v>
+      </c>
+      <c r="B54" s="8">
+        <v>34000</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1493,10 +1560,10 @@
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1504,10 +1571,10 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="9">
-        <v>3500</v>
+        <v>52</v>
+      </c>
+      <c r="B56" s="8">
+        <v>61800</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1515,10 +1582,10 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="9">
-        <v>22000</v>
+        <v>114</v>
+      </c>
+      <c r="B57" s="8">
+        <v>32000</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1526,178 +1593,172 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="9">
-        <v>59500</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="8">
+        <v>13000</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="9">
-        <v>20000</v>
+        <v>54</v>
+      </c>
+      <c r="B59" s="8">
+        <v>17500</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="9">
-        <v>8500</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0</v>
+      </c>
+      <c r="C60" s="9"/>
       <c r="D60" s="6"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="9">
-        <v>69000</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B61" s="8">
+        <v>0</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="6"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="9">
-        <v>200000</v>
-      </c>
-      <c r="C62" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C62" s="9"/>
       <c r="D62" s="6"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="9">
-        <v>5000</v>
-      </c>
-      <c r="C63" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0</v>
+      </c>
+      <c r="C63" s="9"/>
       <c r="D63" s="6"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>684800</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="6"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="9">
-        <v>8500</v>
-      </c>
-      <c r="C65" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="B65" s="8">
+        <v>7000</v>
+      </c>
+      <c r="C65" s="9"/>
       <c r="D65" s="6"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B66" s="8">
-        <v>0</v>
-      </c>
-      <c r="C66" s="6"/>
+        <v>361500</v>
+      </c>
+      <c r="C66" s="9"/>
       <c r="D66" s="6"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="9">
-        <v>83000</v>
-      </c>
-      <c r="C67" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B67" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C67" s="9"/>
       <c r="D67" s="6"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="9">
-        <v>50500</v>
-      </c>
-      <c r="C68" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B68" s="8">
+        <v>17000</v>
+      </c>
+      <c r="C68" s="9"/>
       <c r="D68" s="6"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="9">
-        <v>118500</v>
-      </c>
-      <c r="C69" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B69" s="8">
+        <v>15000</v>
+      </c>
+      <c r="C69" s="9"/>
       <c r="D69" s="6"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="9">
-        <v>30500</v>
-      </c>
-      <c r="C70" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="B70" s="8">
+        <v>22500</v>
+      </c>
+      <c r="C70" s="9"/>
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="9">
-        <v>61500</v>
-      </c>
-      <c r="C71" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B71" s="8">
+        <v>14000</v>
+      </c>
+      <c r="C71" s="9"/>
       <c r="D71" s="6"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="9">
-        <v>53600</v>
+        <v>65</v>
+      </c>
+      <c r="B72" s="8">
+        <v>3500</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1705,110 +1766,402 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="9">
-        <v>70000</v>
-      </c>
-      <c r="C73" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B73" s="8">
+        <v>0</v>
+      </c>
+      <c r="C73" s="9"/>
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="9">
-        <v>5500</v>
-      </c>
-      <c r="C74" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="B74" s="8">
+        <v>59500</v>
+      </c>
+      <c r="C74" s="9"/>
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="9">
-        <v>3000</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="B75" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="8">
+        <v>8500</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="8">
+        <v>60000</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="8">
+        <v>369500</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="8">
+        <v>13000</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="8">
+        <v>0</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="8">
+        <v>0</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="8">
+        <v>12800</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="8">
+        <v>496200</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="8">
+        <v>33000</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="8">
+        <v>140000</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="8">
+        <v>61500</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="8">
+        <v>0</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="8">
+        <v>30500</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="8">
+        <v>15000</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="8">
+        <v>109500</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="8">
+        <v>7000</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="8">
+        <v>64500</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="8">
+        <v>12500</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="8">
+        <v>70000</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="8">
+        <v>5500</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="9">
-        <v>379000</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6" t="s">
+      <c r="B100" s="8">
+        <v>55500</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B101" s="8">
         <v>33000</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="9">
-        <v>27000</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="B102" s="8">
+        <v>-180000</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="8">
-        <v>0</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6" t="s">
+      <c r="B103" s="8">
+        <v>34000</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="9">
-        <v>103000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="9">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="B104" s="8">
+        <v>0</v>
+      </c>
+      <c r="C104" s="11"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="8">
+        <v>34000</v>
+      </c>
+      <c r="C105" s="11"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="8">
+        <v>0</v>
+      </c>
+      <c r="C106" s="11"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="7">
-        <f>SUM(B3:B82)</f>
-        <v>4443672</v>
+      <c r="B107" s="8">
+        <v>0</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="7">
+        <f>SUM(B3:B107)</f>
+        <v>5838800</v>
       </c>
     </row>
   </sheetData>

--- a/bedehkara.xlsx
+++ b/bedehkara.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghaem\Desktop\bedehkaran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghaem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="153">
   <si>
     <t>نام شخص</t>
   </si>
@@ -438,6 +439,60 @@
   </si>
   <si>
     <t>فتح الله قره داغی</t>
+  </si>
+  <si>
+    <t>محمد عزیزی</t>
+  </si>
+  <si>
+    <t>مهدی عبداله پور</t>
+  </si>
+  <si>
+    <t>هدایت خیاطی</t>
+  </si>
+  <si>
+    <t>رسول کریمی</t>
+  </si>
+  <si>
+    <t>مجید قره داغی</t>
+  </si>
+  <si>
+    <t>حسین لازار</t>
+  </si>
+  <si>
+    <t>عزیزه حبیبی</t>
+  </si>
+  <si>
+    <t>جلال یوسفی (موسی بلاغی)</t>
+  </si>
+  <si>
+    <t>سیفعلی غلامی</t>
+  </si>
+  <si>
+    <t>فرهادشیری</t>
+  </si>
+  <si>
+    <t>عنایت مرادی</t>
+  </si>
+  <si>
+    <t>ردیف</t>
+  </si>
+  <si>
+    <t>نام ونام خانوادگی</t>
+  </si>
+  <si>
+    <t>مبلغ به تومان</t>
+  </si>
+  <si>
+    <t>تاریخ 1400/2/8</t>
+  </si>
+  <si>
+    <t>جمع کل</t>
+  </si>
+  <si>
+    <t>نقل از ستون قبلی</t>
+  </si>
+  <si>
+    <t>نقل از صفحه قبلی</t>
   </si>
 </sst>
 </file>
@@ -487,7 +542,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,12 +561,57 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -520,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -531,8 +631,25 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -916,10 +1033,3045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:P242"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17">
+        <v>6500</v>
+      </c>
+      <c r="D3" s="19">
+        <f>SUM(A49)</f>
+        <v>47</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="24">
+        <f>SUM(C49)</f>
+        <v>3521200</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <f>SUM(A3+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="17">
+        <v>138000</v>
+      </c>
+      <c r="D4" s="13">
+        <f>SUM(D3+1)</f>
+        <v>48</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="17">
+        <v>15500</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A68" si="0">SUM(A4+1)</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:D49" si="1">SUM(D4+1)</f>
+        <v>49</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="17">
+        <v>47800</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="17">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <f>SUM(D6+1)</f>
+        <v>51</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2200</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45000</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17">
+        <v>156500</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="13">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="17">
+        <v>61800</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="17">
+        <v>117500</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2500</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="17">
+        <v>157500</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="17">
+        <v>7500</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="17">
+        <v>43000</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="17">
+        <v>266500</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="17">
+        <v>41000</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="17">
+        <v>24500</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17">
+        <v>78300</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="17">
+        <v>716000</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="17">
+        <v>406000</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17">
+        <v>10500</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="17">
+        <v>110000</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="17">
+        <v>12000</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="17">
+        <v>8300</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="17">
+        <v>50000</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="17">
+        <v>17000</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="17">
+        <v>3500</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17">
+        <v>756500</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="17">
+        <v>57000</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="17">
+        <v>8000</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="17">
+        <v>20000</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1585200</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="17">
+        <v>26000</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="17">
+        <v>96500</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="17">
+        <v>132500</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="17">
+        <v>13000</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="17">
+        <v>138500</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="17">
+        <v>355400</v>
+      </c>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="17">
+        <v>300000</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="17">
+        <v>104000</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="17">
+        <v>13000</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="17">
+        <v>186500</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="17">
+        <v>49000</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="17">
+        <v>29000</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="17">
+        <v>6000</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="17">
+        <v>6500</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="17">
+        <v>597200</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="17">
+        <v>38500</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="17">
+        <v>91500</v>
+      </c>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="17">
+        <v>66000</v>
+      </c>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="17">
+        <v>6500</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="17">
+        <v>45000</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="17">
+        <v>220000</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="17">
+        <v>11000</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="17">
+        <v>95000</v>
+      </c>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="17">
+        <v>65000</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="17">
+        <v>165500</v>
+      </c>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="17">
+        <v>45500</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="17">
+        <v>15000</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="17">
+        <v>4700</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="17">
+        <v>70000</v>
+      </c>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="17">
+        <f>SUM(C12:C48)</f>
+        <v>3521200</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="25">
+        <f>SUM(F3:F48)</f>
+        <v>7695200</v>
+      </c>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <f>SUM(D49)</f>
+        <v>93</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="17">
+        <f>SUM(F49)</f>
+        <v>7695200</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="17">
+        <v>7000</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="17">
+        <v>70000</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="17">
+        <v>12500</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="17">
+        <v>70000</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="17">
+        <v>8000</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="17">
+        <v>4500</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="17">
+        <v>103500</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="17">
+        <v>33000</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="17">
+        <v>0</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="17">
+        <v>11800</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="17">
+        <v>73500</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="17">
+        <v>0</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="17">
+        <v>73000</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="17">
+        <f>SUM(C49:C66)</f>
+        <v>11685200</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <f t="shared" ref="A69:A70" si="2">SUM(A68+1)</f>
+        <v>111</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="21"/>
+      <c r="P71" s="13"/>
+    </row>
+    <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80" spans="1:16" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="21"/>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="21"/>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="21"/>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="21"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="21"/>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="21"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="21"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="21"/>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="21"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="21"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="21"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="21"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="21"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="21"/>
+      <c r="B117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="21"/>
+      <c r="B118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="21"/>
+      <c r="B119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="21"/>
+      <c r="B120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="21"/>
+      <c r="B121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="21"/>
+      <c r="B122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="21"/>
+      <c r="B124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="21"/>
+      <c r="B125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="21"/>
+      <c r="B126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="21"/>
+      <c r="B128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="21"/>
+      <c r="B129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="21"/>
+      <c r="B130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="21"/>
+      <c r="B131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="21"/>
+      <c r="B133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="21"/>
+      <c r="B134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="21"/>
+      <c r="B135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="21"/>
+      <c r="B136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="21"/>
+      <c r="B137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="21"/>
+      <c r="B138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="21"/>
+      <c r="B140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="21"/>
+      <c r="B141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="21"/>
+      <c r="B152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="21"/>
+      <c r="B154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="21"/>
+      <c r="B155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="21"/>
+      <c r="B157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="21"/>
+      <c r="B158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="21"/>
+      <c r="B159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="21"/>
+      <c r="B160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="21"/>
+      <c r="B161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="21"/>
+      <c r="B162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="21"/>
+      <c r="B163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="21"/>
+      <c r="B165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="21"/>
+      <c r="B166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="21"/>
+      <c r="B167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="21"/>
+      <c r="B168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="21"/>
+      <c r="B169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="21"/>
+      <c r="B170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="21"/>
+      <c r="B171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="21"/>
+      <c r="B172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="21"/>
+      <c r="B173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="21"/>
+      <c r="B174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="21"/>
+      <c r="B175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="21"/>
+      <c r="B176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="21"/>
+      <c r="B177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="21"/>
+      <c r="B178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="21"/>
+      <c r="B179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="21"/>
+      <c r="B180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="21"/>
+      <c r="B181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="21"/>
+      <c r="B182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="21"/>
+      <c r="B183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="21"/>
+      <c r="B184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="21"/>
+      <c r="B185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="21"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="21"/>
+      <c r="B186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="21"/>
+      <c r="B187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="21"/>
+      <c r="B188" s="21"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="21"/>
+      <c r="B189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="21"/>
+      <c r="B190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="21"/>
+      <c r="B191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="21"/>
+      <c r="B192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="21"/>
+      <c r="B193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="21"/>
+      <c r="B194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="21"/>
+      <c r="B195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="21"/>
+      <c r="B196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="21"/>
+      <c r="B197" s="21"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="21"/>
+      <c r="B198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="21"/>
+      <c r="B199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="21"/>
+      <c r="B200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="21"/>
+      <c r="B201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="21"/>
+      <c r="B202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="21"/>
+      <c r="B203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="21"/>
+      <c r="B204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="21"/>
+      <c r="B205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="21"/>
+      <c r="B206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="21"/>
+      <c r="B207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="21"/>
+      <c r="B208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="21"/>
+      <c r="B209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="21"/>
+      <c r="B210" s="21"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="21"/>
+      <c r="B211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="21"/>
+      <c r="B212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="21"/>
+      <c r="B213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="21"/>
+      <c r="B214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="21"/>
+      <c r="B215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="21"/>
+      <c r="B216" s="21"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="21"/>
+      <c r="B217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="21"/>
+      <c r="B220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="21"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="21"/>
+      <c r="B221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="21"/>
+      <c r="B222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="21"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="21"/>
+      <c r="B223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="21"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="21"/>
+      <c r="B224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="21"/>
+      <c r="B225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="21"/>
+      <c r="B226" s="21"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="21"/>
+      <c r="B227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="21"/>
+      <c r="B228" s="21"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="21"/>
+      <c r="B229" s="21"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="21"/>
+      <c r="B230" s="21"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="21"/>
+      <c r="B231" s="21"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21"/>
+      <c r="G231" s="21"/>
+      <c r="H231" s="21"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="21"/>
+      <c r="B232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="21"/>
+      <c r="H232" s="21"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="21"/>
+      <c r="B233" s="21"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="21"/>
+      <c r="H233" s="21"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="21"/>
+      <c r="B234" s="21"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="21"/>
+      <c r="B235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="21"/>
+      <c r="B236" s="21"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="21"/>
+      <c r="B237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="21"/>
+      <c r="H237" s="21"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="21"/>
+      <c r="B238" s="21"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="21"/>
+      <c r="B239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="21"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="21"/>
+      <c r="H240" s="21"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="21"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21"/>
+      <c r="H241" s="21"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D242" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F110"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,10 +4109,10 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <v>6500</v>
       </c>
       <c r="C3" s="6"/>
@@ -968,10 +4120,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <v>84000</v>
       </c>
       <c r="C4" s="6"/>
@@ -979,10 +4131,10 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>0</v>
       </c>
       <c r="C5" s="6"/>
@@ -990,10 +4142,10 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>0</v>
       </c>
       <c r="C6" s="6"/>
@@ -1003,10 +4155,10 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="12">
         <v>46000</v>
       </c>
       <c r="C7" s="6"/>
@@ -1014,10 +4166,10 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <v>32200</v>
       </c>
       <c r="C8" s="6"/>
@@ -1025,10 +4177,10 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="12">
         <v>20000</v>
       </c>
       <c r="C9" s="6"/>
@@ -1036,10 +4188,10 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
       <c r="C10" s="6"/>
@@ -1047,10 +4199,10 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <v>50000</v>
       </c>
       <c r="C11" s="9"/>
@@ -1058,10 +4210,10 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="12">
         <v>2500</v>
       </c>
       <c r="C12" s="9"/>
@@ -1069,10 +4221,10 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="12">
         <v>5000</v>
       </c>
       <c r="C13" s="9"/>
@@ -1080,10 +4232,10 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="12">
         <v>2500</v>
       </c>
       <c r="C14" s="9"/>
@@ -1091,10 +4243,10 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="12">
         <v>6500</v>
       </c>
       <c r="C15" s="9"/>
@@ -1102,10 +4254,10 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="12">
         <v>0</v>
       </c>
       <c r="C16" s="9"/>
@@ -1115,10 +4267,10 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="12">
         <v>44000</v>
       </c>
       <c r="C17" s="9"/>
@@ -1126,10 +4278,10 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="12">
         <v>0</v>
       </c>
       <c r="C18" s="9"/>
@@ -1137,10 +4289,10 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="12">
         <v>78300</v>
       </c>
       <c r="C19" s="9"/>
@@ -1148,10 +4300,10 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="12">
         <v>4500</v>
       </c>
       <c r="C20" s="9"/>
@@ -1159,10 +4311,10 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <v>0</v>
       </c>
       <c r="C21" s="9"/>
@@ -1170,10 +4322,10 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="12">
         <v>0</v>
       </c>
       <c r="C22" s="9"/>
@@ -1181,10 +4333,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="12">
         <v>0</v>
       </c>
       <c r="C23" s="6"/>
@@ -1192,10 +4344,10 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="12">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1207,10 +4359,10 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="12">
         <v>25000</v>
       </c>
       <c r="C25" s="6"/>
@@ -1218,10 +4370,10 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="12">
         <v>0</v>
       </c>
       <c r="C26" s="6"/>
@@ -1229,10 +4381,10 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="12">
         <v>0</v>
       </c>
       <c r="C27" s="6"/>
@@ -1240,10 +4392,10 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="12">
         <v>246500</v>
       </c>
       <c r="C28" s="6"/>
@@ -1251,10 +4403,10 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>31000</v>
       </c>
       <c r="C29" s="6"/>
@@ -1262,10 +4414,10 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="16">
         <v>1206200</v>
       </c>
       <c r="C30" s="6"/>
@@ -1273,10 +4425,10 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>5500</v>
       </c>
       <c r="C31" s="6"/>
@@ -1284,10 +4436,10 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="12">
         <v>46700</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1299,10 +4451,10 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="12">
         <v>577000</v>
       </c>
       <c r="C33" s="6"/>
@@ -1310,10 +4462,10 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="12">
         <v>0</v>
       </c>
       <c r="C34" s="6"/>
@@ -1321,10 +4473,10 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="12">
         <v>131000</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1336,10 +4488,10 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="12">
         <v>81000</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1351,10 +4503,10 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="12">
         <v>0</v>
       </c>
       <c r="C37" s="6"/>
@@ -1362,10 +4514,10 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="12">
         <v>6000</v>
       </c>
       <c r="C38" s="6"/>
@@ -1373,10 +4525,10 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="12">
         <v>6000</v>
       </c>
       <c r="C39" s="6"/>
@@ -1384,10 +4536,10 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="12">
         <v>6500</v>
       </c>
       <c r="C40" s="6"/>
@@ -1395,10 +4547,10 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="12">
         <v>38500</v>
       </c>
       <c r="C41" s="6"/>
@@ -1406,10 +4558,10 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="12">
         <v>-428000</v>
       </c>
       <c r="C42" s="6"/>
@@ -1417,10 +4569,10 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="12">
         <v>16300</v>
       </c>
       <c r="C43" s="6"/>
@@ -1428,10 +4580,10 @@
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="12">
         <v>220000</v>
       </c>
       <c r="C44" s="6"/>
@@ -1441,10 +4593,10 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="12">
         <v>62500</v>
       </c>
       <c r="C45" s="6"/>
@@ -1452,10 +4604,10 @@
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="12">
         <v>65000</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1467,10 +4619,10 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="12">
         <v>18000</v>
       </c>
       <c r="C47" s="6"/>
@@ -1478,10 +4630,10 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="12">
         <v>4700</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -1493,10 +4645,10 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="12">
         <v>15500</v>
       </c>
       <c r="C49" s="6"/>
@@ -1504,10 +4656,10 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="12">
         <v>38800</v>
       </c>
       <c r="C50" s="6"/>
@@ -1515,10 +4667,10 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="12">
         <v>7500</v>
       </c>
       <c r="C51" s="6"/>
@@ -1526,10 +4678,10 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="12">
         <v>50000</v>
       </c>
       <c r="C52" s="6"/>
@@ -1537,10 +4689,10 @@
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="12">
         <v>2000</v>
       </c>
       <c r="C53" s="6"/>
@@ -1548,10 +4700,10 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="12">
         <v>34000</v>
       </c>
       <c r="C54" s="6"/>
@@ -1559,10 +4711,10 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="12">
         <v>56000</v>
       </c>
       <c r="C55" s="6"/>
@@ -1570,10 +4722,10 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="12">
         <v>61800</v>
       </c>
       <c r="C56" s="6"/>
@@ -1581,10 +4733,10 @@
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="12">
         <v>32000</v>
       </c>
       <c r="C57" s="6"/>
@@ -1592,10 +4744,10 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="12">
         <v>13000</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -1607,10 +4759,10 @@
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="12">
         <v>17500</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -1622,10 +4774,10 @@
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="12">
         <v>0</v>
       </c>
       <c r="C60" s="9"/>
@@ -1633,10 +4785,10 @@
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="12">
         <v>0</v>
       </c>
       <c r="C61" s="9"/>
@@ -1644,10 +4796,10 @@
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="12">
         <v>30000</v>
       </c>
       <c r="C62" s="9"/>
@@ -1655,10 +4807,10 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="12">
         <v>0</v>
       </c>
       <c r="C63" s="9"/>
@@ -1666,10 +4818,10 @@
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="12">
         <v>684800</v>
       </c>
       <c r="C64" s="9"/>
@@ -1677,10 +4829,10 @@
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="12">
         <v>7000</v>
       </c>
       <c r="C65" s="9"/>
@@ -1688,10 +4840,10 @@
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="12">
         <v>361500</v>
       </c>
       <c r="C66" s="9"/>
@@ -1699,10 +4851,10 @@
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="12">
         <v>20000</v>
       </c>
       <c r="C67" s="9"/>
@@ -1710,10 +4862,10 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="12">
         <v>17000</v>
       </c>
       <c r="C68" s="9"/>
@@ -1721,10 +4873,10 @@
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="12">
         <v>15000</v>
       </c>
       <c r="C69" s="9"/>
@@ -1732,10 +4884,10 @@
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="12">
         <v>22500</v>
       </c>
       <c r="C70" s="9"/>
@@ -1743,10 +4895,10 @@
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="12">
         <v>14000</v>
       </c>
       <c r="C71" s="9"/>
@@ -1754,10 +4906,10 @@
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="12">
         <v>3500</v>
       </c>
       <c r="C72" s="6"/>
@@ -1765,10 +4917,10 @@
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="12">
         <v>0</v>
       </c>
       <c r="C73" s="9"/>
@@ -1776,10 +4928,10 @@
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="12">
         <v>59500</v>
       </c>
       <c r="C74" s="9"/>
@@ -1787,10 +4939,10 @@
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="12">
         <v>20000</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -1802,10 +4954,10 @@
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="12">
         <v>8500</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -1815,10 +4967,10 @@
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="12">
         <v>60000</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -1830,10 +4982,10 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="12">
         <v>369500</v>
       </c>
       <c r="C78" s="9"/>
@@ -1841,10 +4993,10 @@
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="12">
         <v>0</v>
       </c>
       <c r="C79" s="6"/>
@@ -1852,10 +5004,10 @@
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="12">
         <v>13000</v>
       </c>
       <c r="C80" s="6"/>
@@ -1863,10 +5015,10 @@
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="12">
         <v>0</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -1878,10 +5030,10 @@
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="12">
         <v>0</v>
       </c>
       <c r="C82" s="6"/>
@@ -1889,10 +5041,10 @@
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="12">
         <v>12800</v>
       </c>
       <c r="C83" s="6"/>
@@ -1900,10 +5052,10 @@
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="12">
         <v>10000</v>
       </c>
       <c r="C84" s="6"/>
@@ -1911,10 +5063,10 @@
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="12">
         <v>496200</v>
       </c>
       <c r="C85" s="6"/>
@@ -1922,10 +5074,10 @@
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="12">
         <v>33000</v>
       </c>
       <c r="C86" s="9"/>
@@ -1933,10 +5085,10 @@
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="12">
         <v>10000</v>
       </c>
       <c r="C87" s="9"/>
@@ -1944,10 +5096,10 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="12">
         <v>140000</v>
       </c>
       <c r="C88" s="9"/>
@@ -1955,10 +5107,10 @@
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="12">
         <v>61500</v>
       </c>
       <c r="C89" s="9"/>
@@ -1966,10 +5118,10 @@
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="12">
         <v>0</v>
       </c>
       <c r="C90" s="9"/>
@@ -1977,10 +5129,10 @@
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="12">
         <v>30500</v>
       </c>
       <c r="C91" s="9"/>
@@ -1988,10 +5140,10 @@
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="12">
         <v>15000</v>
       </c>
       <c r="C92" s="9"/>
@@ -1999,10 +5151,10 @@
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="12">
         <v>109500</v>
       </c>
       <c r="C93" s="9"/>
@@ -2010,10 +5162,10 @@
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="12">
         <v>7000</v>
       </c>
       <c r="C94" s="9"/>
@@ -2021,10 +5173,10 @@
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="12">
         <v>64500</v>
       </c>
       <c r="C95" s="9"/>
@@ -2032,10 +5184,10 @@
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="12">
         <v>12500</v>
       </c>
       <c r="C96" s="9"/>
@@ -2043,10 +5195,10 @@
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="12">
         <v>70000</v>
       </c>
       <c r="C97" s="9"/>
@@ -2054,10 +5206,10 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="12">
         <v>5500</v>
       </c>
       <c r="C98" s="9"/>
@@ -2065,10 +5217,10 @@
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="12">
         <v>3000</v>
       </c>
       <c r="C99" s="9"/>
@@ -2076,10 +5228,10 @@
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="12">
         <v>55500</v>
       </c>
       <c r="C100" s="9"/>
@@ -2089,30 +5241,30 @@
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="12">
         <v>33000</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="12">
         <v>-180000</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="12">
         <v>34000</v>
       </c>
       <c r="C103" s="9"/>
@@ -2121,48 +5273,57 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="12">
         <v>0</v>
       </c>
-      <c r="C104" s="11"/>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="12">
         <v>34000</v>
       </c>
-      <c r="C105" s="11"/>
+      <c r="C105" s="10"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="12">
         <v>0</v>
       </c>
-      <c r="C106" s="11"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="12">
         <v>0</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="7">
+      <c r="A108" s="13"/>
+      <c r="B108" s="14">
         <f>SUM(B3:B107)</f>
         <v>5838800</v>
       </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="15"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
